--- a/Statystyki_2018/Template/obbp_.xlsx
+++ b/Statystyki_2018/Template/obbp_.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>INFORMACJA</t>
   </si>
@@ -57,10 +57,19 @@
     <t>Kordyka Krystian</t>
   </si>
   <si>
-    <t>Kowalewska Ula</t>
+    <t>Kowalewska Ala</t>
   </si>
   <si>
-    <t>Kowalewska Ala</t>
+    <t>Kowalewska-KowalewskaKowalewska Ula</t>
+  </si>
+  <si>
+    <t>Nowak Jan</t>
+  </si>
+  <si>
+    <t>Sokołowski Michał</t>
+  </si>
+  <si>
+    <t>trzaskowski tomasz</t>
   </si>
   <si>
     <t>Zaległość z poprzedniego miesiąca</t>
@@ -69,16 +78,19 @@
     <t>123.15</t>
   </si>
   <si>
-    <t>Wpływ</t>
+    <t>Wpłynęło</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pozostało na następny miesiąc</t>
+    <t>Załatwiono</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3-6 miesięcy</t>
+    <t>Pozostało na następny miesiąc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6-12 miesięcy</t>
+    <t>3-6 miesięcy</t>
+  </si>
+  <si>
+    <t>6-12 miesięcy</t>
   </si>
   <si>
     <t>ponad 12 miesięcy</t>
@@ -136,15 +148,6 @@
     <t>odroczonych</t>
   </si>
   <si>
-    <t>Nowak Jan</t>
-  </si>
-  <si>
-    <t>Sokołowski Michał</t>
-  </si>
-  <si>
-    <t>trzaskowski tomasz</t>
-  </si>
-  <si>
     <t>Wykaz terminowości sporządzania uzasadnień z orzeczeń</t>
   </si>
   <si>
@@ -199,10 +202,10 @@
     <t>Kordyka 4 Krystian</t>
   </si>
   <si>
-    <t>Kowalewska 6 Ula</t>
+    <t>Kowalewska 7 Ala</t>
   </si>
   <si>
-    <t>Kowalewska 7 Ala</t>
+    <t>Kowalewska-KowalewskaKowalewska 6 Ula</t>
   </si>
   <si>
     <t>Nowak 1 Jan</t>
@@ -392,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -488,6 +491,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000" tint="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -508,7 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -614,6 +641,8 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -951,7 +980,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -4140,77 +4169,99 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="47">
-        <v>11</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="47">
+      <c r="C8" s="48">
+        <v>2038</v>
+      </c>
+      <c r="D8" s="48">
         <v>0</v>
       </c>
-      <c r="G8" s="47">
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="47">
+      <c r="A9" s="47">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="48">
+        <v>2056</v>
+      </c>
+      <c r="D9" s="48">
         <v>0</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="48">
         <v>0</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="48">
         <v>0</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="47">
+      <c r="C10" s="48">
         <v>0</v>
       </c>
-      <c r="E10" s="47">
+      <c r="D10" s="48">
         <v>0</v>
       </c>
-      <c r="F10" s="47">
-        <v>33</v>
-      </c>
-      <c r="G10" s="47">
+      <c r="E10" s="48">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="48" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="47">
-        <v>0</v>
-      </c>
-      <c r="E11" s="47">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>16</v>
       </c>
       <c r="F11" s="47">
         <v>0</v>
       </c>
       <c r="G11" s="47">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="48" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="47">
         <v>0</v>
       </c>
@@ -4221,30 +4272,34 @@
         <v>0</v>
       </c>
       <c r="G12" s="47">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="47">
+      <c r="E13" s="47">
         <v>0</v>
       </c>
-      <c r="E13" s="47">
-        <v>3</v>
-      </c>
       <c r="F13" s="47">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G13" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="48" t="s">
-        <v>17</v>
-      </c>
+      <c r="A14" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="47">
         <v>0</v>
       </c>
@@ -4259,9 +4314,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="48" t="s">
-        <v>18</v>
-      </c>
+      <c r="A15" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="47">
         <v>0</v>
       </c>
@@ -4272,6 +4329,44 @@
         <v>0</v>
       </c>
       <c r="G15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="47">
+        <v>0</v>
+      </c>
+      <c r="E16" s="47">
+        <v>3</v>
+      </c>
+      <c r="F16" s="47">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0</v>
+      </c>
+      <c r="F17" s="47">
+        <v>0</v>
+      </c>
+      <c r="G17" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4282,14 +4377,13 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
   <headerFooter>
@@ -4316,7 +4410,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -5353,15 +5447,15 @@
     </row>
     <row r="3">
       <c r="A3" s="29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="E3" s="31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -6389,19 +6483,19 @@
         <v>8</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -7425,23 +7519,23 @@
       <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>29</v>
+      <c r="B5" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>33</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -16677,129 +16771,129 @@
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="35" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="37"/>
       <c r="E2" s="38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.75">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E3" s="38"/>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="53">
         <v>0</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="53">
         <v>0</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="53">
         <v>0</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="53">
         <v>0</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="53">
         <v>0</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="53">
         <v>0</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="51">
+      <c r="B6" s="53">
         <v>0</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="53">
         <v>0</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="53">
         <v>0</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="A7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="53">
         <v>2</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="53">
         <v>0</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="53">
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="53">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="51">
+      <c r="A8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="53">
         <v>3</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="53">
         <v>0</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="53">
         <v>0</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="51">
+      <c r="A9" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="53">
         <v>0</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="53">
         <v>0</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="53">
         <v>0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="53">
         <v>0</v>
       </c>
     </row>
@@ -16840,7 +16934,7 @@
   <sheetData>
     <row r="1" ht="15.75">
       <c r="A1" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -16856,7 +16950,7 @@
     </row>
     <row r="2" ht="15.75">
       <c r="A2" s="28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -16872,27 +16966,27 @@
     </row>
     <row r="3" ht="15.75">
       <c r="A3" s="46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" s="44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
@@ -16902,13 +16996,13 @@
       <c r="A4" s="35"/>
       <c r="B4" s="40"/>
       <c r="C4" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -16919,176 +17013,176 @@
       <c r="L4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="53">
         <v>0</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="53">
         <v>0</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="53">
         <v>0</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="53">
         <v>0</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="53">
         <v>0</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="53">
         <v>0</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="53">
         <v>0</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="51">
+      <c r="A6" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="53">
         <v>0</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="53">
         <v>0</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="53">
         <v>0</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="53">
         <v>0</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="53">
         <v>0</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="53">
         <v>0</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="53">
         <v>0</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="A7" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="53">
         <v>0</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="53">
         <v>0</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="53">
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="53">
         <v>0</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="53">
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="53">
         <v>0</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="53">
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="51">
+      <c r="A8" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="53">
         <v>1</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="53">
+        <v>13.213213</v>
+      </c>
+      <c r="D8" s="53">
+        <v>13.213213</v>
+      </c>
+      <c r="E8" s="53">
+        <v>13.213213</v>
+      </c>
+      <c r="F8" s="53">
         <v>0</v>
       </c>
-      <c r="D8" s="51">
+      <c r="G8" s="53">
         <v>0</v>
       </c>
-      <c r="E8" s="51">
+      <c r="H8" s="53">
         <v>0</v>
       </c>
-      <c r="F8" s="51">
-        <v>0</v>
-      </c>
-      <c r="G8" s="51">
-        <v>0</v>
-      </c>
-      <c r="H8" s="51">
-        <v>0</v>
-      </c>
-      <c r="I8" s="51">
+      <c r="I8" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="51">
+      <c r="A9" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="53">
         <v>2</v>
       </c>
-      <c r="C9" s="51">
+      <c r="C9" s="53">
+        <v>18.918918</v>
+      </c>
+      <c r="D9" s="53">
+        <v>18.918918</v>
+      </c>
+      <c r="E9" s="53">
+        <v>18.918918</v>
+      </c>
+      <c r="F9" s="53">
         <v>0</v>
       </c>
-      <c r="D9" s="51">
+      <c r="G9" s="53">
         <v>0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="H9" s="53">
         <v>0</v>
       </c>
-      <c r="F9" s="51">
-        <v>0</v>
-      </c>
-      <c r="G9" s="51">
-        <v>0</v>
-      </c>
-      <c r="H9" s="51">
-        <v>0</v>
-      </c>
-      <c r="I9" s="51">
+      <c r="I9" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="51">
+      <c r="A10" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="53">
         <v>0</v>
       </c>
-      <c r="C10" s="51">
+      <c r="C10" s="53">
         <v>0</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="53">
         <v>0</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="53">
         <v>0</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="53">
         <v>0</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="53">
         <v>0</v>
       </c>
-      <c r="H10" s="51">
+      <c r="H10" s="53">
         <v>0</v>
       </c>
-      <c r="I10" s="51">
+      <c r="I10" s="53">
         <v>0</v>
       </c>
     </row>
